--- a/D-DHelper/Materials/SpellsBase.xlsx
+++ b/D-DHelper/Materials/SpellsBase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,13 +11,45 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Time of spelling</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +57,72 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="18thCentury"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -42,25 +130,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Контрольная ячейка" xfId="2" builtinId="23"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,7 +223,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -170,7 +295,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -343,36 +468,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
